--- a/data/trans_orig/P14C11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C11-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9100FE2A-E94C-4FDC-99E2-A0BEE7EADD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{27831F8C-443E-49AC-BC2F-920B3D59F669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A40E3183-2BBA-4B76-8613-A978B66711CE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{998BAC7C-112C-4AF1-AA27-F7AA358CBFF8}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="115">
   <si>
     <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 1,57%)</t>
   </si>
@@ -185,10 +185,10 @@
     <t>60,68%</t>
   </si>
   <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
   </si>
   <si>
     <t>23,43%</t>
@@ -206,10 +206,10 @@
     <t>26,92%</t>
   </si>
   <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
   </si>
   <si>
     <t>14,17%</t>
@@ -221,7 +221,7 @@
     <t>12,4%</t>
   </si>
   <si>
-    <t>38,02%</t>
+    <t>38,25%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -230,37 +230,37 @@
     <t>80,19%</t>
   </si>
   <si>
-    <t>65,8%</t>
-  </si>
-  <si>
-    <t>89,58%</t>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
   </si>
   <si>
     <t>11,96%</t>
@@ -269,112 +269,115 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>27,16%</t>
+    <t>27,28%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>12,09%</t>
+    <t>9,62%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>16,51%</t>
+    <t>16,83%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>9,83%</t>
+    <t>9,88%</t>
   </si>
   <si>
     <t>74,37%</t>
   </si>
   <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>64,31%</t>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
   </si>
   <si>
     <t>76,47%</t>
   </si>
   <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
   </si>
   <si>
     <t>6,53%</t>
   </si>
   <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -789,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883AACB2-28D4-4D51-A0BB-EBF8CD89AA6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27893FE-B4B2-4EFF-9DB8-13687A40E35F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2138,7 +2141,7 @@
         <v>91</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="M28" s="7">
         <v>78</v>
@@ -2147,13 +2150,13 @@
         <v>82833</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2171,13 @@
         <v>13032</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H29" s="7">
         <v>5</v>
@@ -2183,13 +2186,13 @@
         <v>5389</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -2198,13 +2201,13 @@
         <v>18421</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,13 +2222,13 @@
         <v>3879</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -2234,13 +2237,13 @@
         <v>3194</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M30" s="7">
         <v>7</v>
@@ -2249,13 +2252,13 @@
         <v>7074</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2311,7 +2314,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C11-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C11-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{27831F8C-443E-49AC-BC2F-920B3D59F669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35F5BCF-925D-4A00-B251-A516D869D77B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{998BAC7C-112C-4AF1-AA27-F7AA358CBFF8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{112899D2-DA74-45EB-BD74-A8A796D08041}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="115">
   <si>
-    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2015 (Tasa respuesta: 1,57%)</t>
+    <t>Población según el tiempo de diagnóstico del infarto de miocardio en 2016 (Tasa respuesta: 1,57%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -119,10 +119,10 @@
     <t>61,25%</t>
   </si>
   <si>
-    <t>22,6%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
   </si>
   <si>
     <t>65,24%</t>
@@ -131,16 +131,16 @@
     <t>62,24%</t>
   </si>
   <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
+    <t>33,27%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
   <si>
     <t>26,82%</t>
   </si>
   <si>
-    <t>67,46%</t>
+    <t>66,37%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -149,13 +149,13 @@
     <t>20,21%</t>
   </si>
   <si>
-    <t>50,25%</t>
+    <t>51,04%</t>
   </si>
   <si>
     <t>11,92%</t>
   </si>
   <si>
-    <t>51,85%</t>
+    <t>49,34%</t>
   </si>
   <si>
     <t>34,76%</t>
@@ -164,7 +164,7 @@
     <t>17,55%</t>
   </si>
   <si>
-    <t>53,71%</t>
+    <t>46,38%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -173,7 +173,7 @@
     <t>62,4%</t>
   </si>
   <si>
-    <t>31,48%</t>
+    <t>32,27%</t>
   </si>
   <si>
     <t>85,18%</t>
@@ -185,19 +185,19 @@
     <t>60,68%</t>
   </si>
   <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
   <si>
     <t>23,43%</t>
   </si>
   <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
   </si>
   <si>
     <t>51,32%</t>
@@ -206,22 +206,22 @@
     <t>26,92%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>43,95%</t>
+    <t>37,14%</t>
   </si>
   <si>
     <t>12,4%</t>
   </si>
   <si>
-    <t>38,25%</t>
+    <t>35,46%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -230,37 +230,37 @@
     <t>80,19%</t>
   </si>
   <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>84,59%</t>
   </si>
   <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
   </si>
   <si>
     <t>82,26%</t>
   </si>
   <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>89,43%</t>
   </si>
   <si>
     <t>17,84%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
   <si>
     <t>11,96%</t>
@@ -269,106 +269,106 @@
     <t>2,94%</t>
   </si>
   <si>
-    <t>27,28%</t>
+    <t>27,3%</t>
   </si>
   <si>
     <t>15,07%</t>
   </si>
   <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>9,62%</t>
+    <t>8,51%</t>
   </si>
   <si>
     <t>3,45%</t>
   </si>
   <si>
-    <t>16,83%</t>
+    <t>17,27%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>9,88%</t>
+    <t>8,9%</t>
   </si>
   <si>
     <t>74,37%</t>
   </si>
   <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>76,47%</t>
   </si>
   <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
   </si>
   <si>
     <t>19,75%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
   </si>
   <si>
     <t>5,88%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
   </si>
   <si>
     <t>7,54%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
   </si>
   <si>
     <t>6,53%</t>
@@ -377,7 +377,7 @@
     <t>2,73%</t>
   </si>
   <si>
-    <t>13,02%</t>
+    <t>12,34%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -792,7 +792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27893FE-B4B2-4EFF-9DB8-13687A40E35F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79A5A6AF-A12A-4E1C-A09D-D1626C09184F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
